--- a/Dagplanner/bin/Debug/net6.0-windows/Dagplanning.xlsx
+++ b/Dagplanner/bin/Debug/net6.0-windows/Dagplanning.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
   <si>
     <t>Tasks</t>
   </si>
   <si>
-    <t>fghfg fghfghf</t>
+    <t>thomas dc</t>
   </si>
   <si>
-    <t>sdfgsdfg</t>
+    <t>cleaning or smth idk</t>
   </si>
 </sst>
 </file>
@@ -505,8 +505,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" widthPt="66.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" widthPt="42.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.57421875" widthPt="55.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.00390625" widthPt="94.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
@@ -602,12 +602,9 @@
         <v>44913.6875</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75">
+    <row r="19" ht="12.75">
       <c r="A19" s="3">
         <v>44913.708333333336</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12.75">
@@ -634,19 +631,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="12.75">
+    <row r="23" spans="1:2" ht="12.75">
       <c r="A23" s="3">
         <v>44913.791666666664</v>
       </c>
-    </row>
-    <row r="24" ht="12.75">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="12.75">
       <c r="A24" s="3">
         <v>44913.8125</v>
       </c>
-    </row>
-    <row r="25" ht="12.75">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="12.75">
       <c r="A25" s="3">
         <v>44913.833333333336</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" ht="12.75">

--- a/Dagplanner/bin/Debug/net6.0-windows/Dagplanning.xlsx
+++ b/Dagplanner/bin/Debug/net6.0-windows/Dagplanning.xlsx
@@ -20,10 +20,10 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>thomas dc</t>
+    <t>another stagiaire</t>
   </si>
   <si>
-    <t>cleaning or smth idk</t>
+    <t>work</t>
   </si>
 </sst>
 </file>
@@ -505,8 +505,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.57421875" widthPt="55.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.00390625" widthPt="94.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" widthPt="87.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28125" widthPt="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
@@ -607,36 +607,24 @@
         <v>44913.708333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75">
+    <row r="20" ht="12.75">
       <c r="A20" s="3">
         <v>44913.729166666664</v>
       </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="12.75">
+    </row>
+    <row r="21" ht="12.75">
       <c r="A21" s="3">
         <v>44913.75</v>
       </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="12.75">
+    </row>
+    <row r="22" ht="12.75">
       <c r="A22" s="3">
         <v>44913.770833333336</v>
       </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="12.75">
+    </row>
+    <row r="23" ht="12.75">
       <c r="A23" s="3">
         <v>44913.791666666664</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12.75">
@@ -655,24 +643,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" ht="12.75">
+    <row r="26" spans="1:2" ht="12.75">
       <c r="A26" s="3">
         <v>44913.854166666664</v>
       </c>
-    </row>
-    <row r="27" ht="12.75">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="12.75">
       <c r="A27" s="3">
         <v>44913.875</v>
       </c>
-    </row>
-    <row r="28" ht="12.75">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="12.75">
       <c r="A28" s="3">
         <v>44913.895833333336</v>
       </c>
-    </row>
-    <row r="29" ht="12.75">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="12.75">
       <c r="A29" s="3">
         <v>44913.916666666664</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" ht="12.75">

--- a/Dagplanner/bin/Debug/net6.0-windows/Dagplanning.xlsx
+++ b/Dagplanner/bin/Debug/net6.0-windows/Dagplanning.xlsx
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
   <si>
     <t>Tasks</t>
   </si>
   <si>
-    <t>another stagiaire</t>
+    <t>leerkracht tm</t>
   </si>
   <si>
-    <t>work</t>
+    <t>Uitslapen</t>
+  </si>
+  <si>
+    <t>demonstratievideo maken</t>
   </si>
 </sst>
 </file>
@@ -505,8 +508,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" widthPt="87.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28125" widthPt="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28125" widthPt="69.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28125" widthPt="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
@@ -522,39 +525,60 @@
         <v>44913.354166666664</v>
       </c>
     </row>
-    <row r="3" ht="12.75">
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="3">
         <v>44913.375</v>
       </c>
-    </row>
-    <row r="4" ht="12.75">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75">
       <c r="A4" s="3">
         <v>44913.395833333336</v>
       </c>
-    </row>
-    <row r="5" ht="12.75">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.75">
       <c r="A5" s="3">
         <v>44913.416666666664</v>
       </c>
-    </row>
-    <row r="6" ht="12.75">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.75">
       <c r="A6" s="3">
         <v>44913.4375</v>
       </c>
-    </row>
-    <row r="7" ht="12.75">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="12.75">
       <c r="A7" s="3">
         <v>44913.458333333336</v>
       </c>
-    </row>
-    <row r="8" ht="12.75">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="12.75">
       <c r="A8" s="3">
         <v>44913.479166666664</v>
       </c>
-    </row>
-    <row r="9" ht="12.75">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="12.75">
       <c r="A9" s="3">
         <v>44913.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" ht="12.75">
@@ -612,19 +636,28 @@
         <v>44913.729166666664</v>
       </c>
     </row>
-    <row r="21" ht="12.75">
+    <row r="21" spans="1:2" ht="12.75">
       <c r="A21" s="3">
         <v>44913.75</v>
       </c>
-    </row>
-    <row r="22" ht="12.75">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="12.75">
       <c r="A22" s="3">
         <v>44913.770833333336</v>
       </c>
-    </row>
-    <row r="23" ht="12.75">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="12.75">
       <c r="A23" s="3">
         <v>44913.791666666664</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12.75">
@@ -632,7 +665,7 @@
         <v>44913.8125</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.75">
@@ -640,7 +673,7 @@
         <v>44913.833333333336</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12.75">
@@ -648,7 +681,7 @@
         <v>44913.854166666664</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12.75">
@@ -656,7 +689,7 @@
         <v>44913.875</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12.75">
@@ -664,7 +697,7 @@
         <v>44913.895833333336</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12.75">
@@ -672,7 +705,7 @@
         <v>44913.916666666664</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" ht="12.75">
